--- a/classification_report_RandomForest.xlsx
+++ b/classification_report_RandomForest.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7294685990338164</v>
+        <v>0.7376237623762376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.949685534591195</v>
+        <v>0.9371069182389937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.825136612021858</v>
+        <v>0.8254847645429363</v>
       </c>
       <c r="E2" t="n">
         <v>159</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.8468468468468469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8930232558139535</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="E5" t="n">
         <v>111</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8555133079847909</v>
+        <v>0.8455882352941176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9414225941422594</v>
+        <v>0.9623430962343096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8964143426294821</v>
+        <v>0.9001956947162426</v>
       </c>
       <c r="E6" t="n">
         <v>239</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.625</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="n">
         <v>39</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.4</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -636,10 +636,10 @@
         <v>0.5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.76</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C13" t="n">
         <v>0.8636363636363636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="E13" t="n">
         <v>22</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E14" t="n">
         <v>21</v>
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E16" t="n">
         <v>18</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7706293706293706</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7706293706293706</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7706293706293706</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7706293706293706</v>
+        <v>0.7832167832167832</v>
       </c>
     </row>
     <row r="19">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4145824106472045</v>
+        <v>0.4474532524695749</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3751304993570822</v>
+        <v>0.3979346238735794</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3774404018067197</v>
+        <v>0.4017303490990772</v>
       </c>
       <c r="E19" t="n">
         <v>715</v>
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7185829127179532</v>
+        <v>0.7300312388459267</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7706293706293706</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="D20" t="n">
-        <v>0.734230087749103</v>
+        <v>0.7450399278465466</v>
       </c>
       <c r="E20" t="n">
         <v>715</v>
